--- a/data/public/listeEtablissements.xlsx
+++ b/data/public/listeEtablissements.xlsx
@@ -15228,27 +15228,27 @@
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="2" t="inlineStr">
         <is>
-          <t>L9444</t>
+          <t>L0708</t>
         </is>
       </c>
       <c r="B462" s="2" t="inlineStr">
         <is>
-          <t>Ecole</t>
+          <t>Université</t>
         </is>
       </c>
       <c r="C462" s="2" t="inlineStr">
         <is>
-          <t>Institut Matthieu Michel</t>
+          <t>Lycée Raymond Roussel</t>
         </is>
       </c>
       <c r="D462" s="3" t="inlineStr">
         <is>
-          <t>81082</t>
+          <t>27073</t>
         </is>
       </c>
       <c r="E462" s="2" t="inlineStr">
         <is>
-          <t>LevequeVille</t>
+          <t>Saint Lucy</t>
         </is>
       </c>
       <c r="F462" s="2" t="inlineStr">
@@ -15260,27 +15260,27 @@
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="2" t="inlineStr">
         <is>
-          <t>270730</t>
+          <t>1279076Y</t>
         </is>
       </c>
       <c r="B463" s="2" t="inlineStr">
         <is>
-          <t>Lycée</t>
+          <t>Université</t>
         </is>
       </c>
       <c r="C463" s="2" t="inlineStr">
         <is>
-          <t>Lycée Andrée Hebert</t>
+          <t>Ecole Supérieure André Maury-Humbert</t>
         </is>
       </c>
       <c r="D463" s="3" t="inlineStr">
         <is>
-          <t>30966</t>
+          <t>86070</t>
         </is>
       </c>
       <c r="E463" s="2" t="inlineStr">
         <is>
-          <t>Malletboeuf</t>
+          <t>Martineau-la-Forêt</t>
         </is>
       </c>
       <c r="F463" s="2" t="inlineStr">
@@ -15292,27 +15292,27 @@
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="2" t="inlineStr">
         <is>
-          <t>586070</t>
+          <t>4886389U</t>
         </is>
       </c>
       <c r="B464" s="2" t="inlineStr">
         <is>
-          <t>Lycée</t>
+          <t>Université</t>
         </is>
       </c>
       <c r="C464" s="2" t="inlineStr">
         <is>
-          <t>Ecole Supérieure Olivie de la Dias</t>
+          <t>Ecole Supérieure Roland Munoz</t>
         </is>
       </c>
       <c r="D464" s="3" t="inlineStr">
         <is>
-          <t>29622</t>
+          <t>09342</t>
         </is>
       </c>
       <c r="E464" s="2" t="inlineStr">
         <is>
-          <t>Lebrun-sur-Maillard</t>
+          <t>Colin-les-Bains</t>
         </is>
       </c>
       <c r="F464" s="2" t="inlineStr">
@@ -15324,27 +15324,27 @@
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="2" t="inlineStr">
         <is>
-          <t>093423</t>
+          <t>L9881</t>
         </is>
       </c>
       <c r="B465" s="2" t="inlineStr">
         <is>
-          <t>Lycée</t>
+          <t>Université</t>
         </is>
       </c>
       <c r="C465" s="2" t="inlineStr">
         <is>
-          <t>Institut Margot-Monique Perrier</t>
+          <t>Ecole Supérieure Jeanne Gregoire</t>
         </is>
       </c>
       <c r="D465" s="3" t="inlineStr">
         <is>
-          <t>74258</t>
+          <t>25842</t>
         </is>
       </c>
       <c r="E465" s="2" t="inlineStr">
         <is>
-          <t>Gregoire</t>
+          <t>Bigot</t>
         </is>
       </c>
       <c r="F465" s="2" t="inlineStr">
@@ -15356,7 +15356,7 @@
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="2" t="inlineStr">
         <is>
-          <t>238722</t>
+          <t>L8722</t>
         </is>
       </c>
       <c r="B466" s="2" t="inlineStr">
@@ -32700,27 +32700,27 @@
     <row r="1008" ht="12.75" customHeight="1">
       <c r="A1008" s="2" t="inlineStr">
         <is>
-          <t>L5268</t>
+          <t>79009161</t>
         </is>
       </c>
       <c r="B1008" s="2" t="inlineStr">
         <is>
-          <t>IUT</t>
+          <t>Ecole</t>
         </is>
       </c>
       <c r="C1008" s="2" t="inlineStr">
         <is>
-          <t>Ecole Supérieure Adrienne David de Briand</t>
+          <t>Ecole Supérieure Xavier-Maurice Thierry</t>
         </is>
       </c>
       <c r="D1008" s="3" t="inlineStr">
         <is>
-          <t>39094</t>
+          <t>94104</t>
         </is>
       </c>
       <c r="E1008" s="2" t="inlineStr">
         <is>
-          <t>Saint Xavier-la-Forêt</t>
+          <t>Maury</t>
         </is>
       </c>
       <c r="F1008" s="2" t="inlineStr">
@@ -32732,7 +32732,7 @@
     <row r="1009" ht="12.75" customHeight="1">
       <c r="A1009" s="3" t="inlineStr">
         <is>
-          <t>0493641U</t>
+          <t>L6412</t>
         </is>
       </c>
       <c r="B1009" s="2" t="inlineStr">
@@ -32742,7 +32742,7 @@
       </c>
       <c r="C1009" s="2" t="inlineStr">
         <is>
-          <t>Lycée Zoé Raynaud Le Brun</t>
+          <t>Institut Michèle de la Pires</t>
         </is>
       </c>
       <c r="D1009" s="3" t="inlineStr">
